--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -4,51 +4,73 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>员工编号</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
     <t>卡号</t>
   </si>
   <si>
-    <t>充值金额（元）</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>孟凡辉</t>
-  </si>
-  <si>
-    <t>15236427639</t>
-  </si>
-  <si>
-    <t>测试</t>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>消费地点</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>餐次</t>
+  </si>
+  <si>
+    <t>补录类型（补扣/补充）</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>沈晓洁</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>饭堂</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>补扣</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd&quot;&quot;;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,12 +82,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -73,13 +118,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -88,9 +126,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,9 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +172,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,74 +196,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +234,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,169 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,20 +428,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,11 +454,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,32 +491,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,212 +530,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -980,22 +1002,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="28.5625" customWidth="1"/>
-    <col min="4" max="4" width="20.6785714285714" customWidth="1"/>
-    <col min="5" max="5" width="17.5535714285714" customWidth="1"/>
+    <col min="1" max="1" width="26.9416666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.3" customWidth="1"/>
+    <col min="6" max="6" width="11.7"/>
+    <col min="8" max="8" width="37.0416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,22 +1034,75 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>88888</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>15018891369</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>15018891369</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44018</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -1,48 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ningxiaojun/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{697B4397-1FF6-8D4D-A1F9-C57813B2F79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1580" windowWidth="27840" windowHeight="16280" xr2:uid="{0B8FC9E6-4E42-C443-AF24-698ED081F9E4}"/>
+    <workbookView windowHeight="17100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>归属饭堂（多个饭堂用|分隔）</t>
-  </si>
-  <si>
-    <t>归属部门</t>
-  </si>
-  <si>
-    <t>人员类型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>员工编号</t>
   </si>
@@ -50,40 +22,63 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>卡号</t>
+  </si>
+  <si>
     <t>手机号码</t>
   </si>
   <si>
-    <t>卡号</t>
-  </si>
-  <si>
-    <t>人员状态（启用/停用）</t>
-  </si>
-  <si>
-    <t>宝驰饭堂</t>
-  </si>
-  <si>
-    <t>车面</t>
-  </si>
-  <si>
-    <t>员工策略</t>
-  </si>
-  <si>
-    <t>康春辉</t>
-  </si>
-  <si>
-    <t>启用</t>
+    <t>消费地点</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>餐次</t>
+  </si>
+  <si>
+    <t>补录类型（补扣/补充）</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t>饭堂</t>
+  </si>
+  <si>
+    <t>午餐</t>
+  </si>
+  <si>
+    <t>补扣</t>
+  </si>
+  <si>
+    <t>敏</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>补充</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -91,26 +86,349 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -118,49 +436,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,7 +772,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -188,7 +784,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -202,12 +798,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -235,31 +831,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -287,23 +866,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,82 +1007,115 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB496EF-2F7C-F74B-9F34-FBCB9E6C00A5}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="26.9375" customWidth="1"/>
+    <col min="4" max="4" width="18.3035714285714" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="37.0446428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12345678910</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
-        <v>666057</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2">
+        <v>44051</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>13059201912</v>
-      </c>
-      <c r="G2" s="1">
-        <v>666057</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12345678912</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44051</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17100"/>
+    <workbookView windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,54 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
-  <si>
-    <t>员工编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>注意：
+1、带“*”信息为必填项；
+2、若企业开启刷卡消费功能，则必须填写生日，否则无需填写生日与卡号；
+3、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。</t>
+  </si>
+  <si>
+    <t>归属饭堂（多个饭堂用|分隔）*</t>
+  </si>
+  <si>
+    <t>归属部门*</t>
+  </si>
+  <si>
+    <t>人员类型*</t>
+  </si>
+  <si>
+    <t>员工编号*</t>
+  </si>
+  <si>
+    <t>姓名*</t>
+  </si>
+  <si>
+    <t>手机号码*</t>
   </si>
   <si>
     <t>卡号</t>
   </si>
   <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>消费地点</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>餐次</t>
-  </si>
-  <si>
-    <t>补录类型（补扣/补充）</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>梁</t>
-  </si>
-  <si>
-    <t>饭堂</t>
-  </si>
-  <si>
-    <t>午餐</t>
-  </si>
-  <si>
-    <t>补扣</t>
-  </si>
-  <si>
-    <t>敏</t>
-  </si>
-  <si>
-    <t>早餐</t>
-  </si>
-  <si>
-    <t>补充</t>
+    <t>人员状态（启用/停用）*</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>人脸识别ID</t>
+  </si>
+  <si>
+    <t>one部门</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>123456121212</t>
+  </si>
+  <si>
+    <t>里斯11212</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>启用</t>
   </si>
 </sst>
 </file>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,13 +90,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,13 +111,29 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,9 +141,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,14 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -143,9 +187,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,65 +219,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -226,11 +232,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,79 +249,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,103 +423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,30 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,21 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -507,6 +474,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +508,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,164 +531,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,108 +1025,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="26.9375" customWidth="1"/>
-    <col min="4" max="4" width="18.3035714285714" customWidth="1"/>
-    <col min="6" max="6" width="21.5714285714286" customWidth="1"/>
-    <col min="8" max="8" width="37.0446428571429" customWidth="1"/>
+    <col min="1" max="1" width="32.7321428571429" customWidth="1"/>
+    <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
+    <col min="4" max="4" width="19.0357142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.9375" customWidth="1"/>
+    <col min="8" max="8" width="25.5982142857143" customWidth="1"/>
+    <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12345678910</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44051</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12345678912</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44051</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3">
+        <v>18956225230</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
-        <v>9</v>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>33147</v>
+      </c>
+      <c r="J3">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14860"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>注意：
 1、带“*”信息为必填项；
@@ -31,7 +31,7 @@
     <t>人员类型*</t>
   </si>
   <si>
-    <t>员工编号*</t>
+    <t>员工编号</t>
   </si>
   <si>
     <t>姓名*</t>
@@ -52,16 +52,13 @@
     <t>人脸识别ID</t>
   </si>
   <si>
-    <t>one部门</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>123456121212</t>
-  </si>
-  <si>
-    <t>里斯11212</t>
+    <t>B策略饭堂</t>
+  </si>
+  <si>
+    <t>one部</t>
+  </si>
+  <si>
+    <t>员工</t>
   </si>
   <si>
     <t>a123</t>
@@ -75,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,14 +94,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,55 +123,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,31 +138,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +162,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -232,9 +230,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,25 +252,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,151 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +437,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,11 +475,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,32 +512,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,171 +537,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,9 +698,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1022,7 @@
   <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1081,27 +1075,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
+      <c r="E3"/>
       <c r="F3">
         <v>18956225230</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="3">
         <v>33147</v>

--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -9,62 +9,44 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
-    <t>注意：
-1、带“*”信息为必填项；
-2、若企业开启刷卡消费功能，则必须填写生日，否则无需填写生日与卡号；
-3、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。</t>
+    <t>姓名</t>
   </si>
   <si>
-    <t>归属饭堂（多个饭堂用|分隔）*</t>
+    <t>手机号码</t>
   </si>
   <si>
-    <t>归属部门*</t>
+    <t>消费地点</t>
   </si>
   <si>
-    <t>人员类型*</t>
+    <t>日期</t>
   </si>
   <si>
-    <t>员工编号</t>
+    <t>餐次</t>
   </si>
   <si>
-    <t>姓名*</t>
+    <t>补录类型（补扣/补充）</t>
   </si>
   <si>
-    <t>手机号码*</t>
+    <t>金额</t>
   </si>
   <si>
-    <t>卡号</t>
+    <t>廖淑怡</t>
   </si>
   <si>
-    <t>人员状态（启用/停用）*</t>
+    <t>饭堂</t>
   </si>
   <si>
-    <t>生日</t>
+    <t>早餐</t>
   </si>
   <si>
-    <t>人脸识别ID</t>
-  </si>
-  <si>
-    <t>B策略饭堂</t>
-  </si>
-  <si>
-    <t>one部</t>
-  </si>
-  <si>
-    <t>员工</t>
-  </si>
-  <si>
-    <t>a123</t>
-  </si>
-  <si>
-    <t>启用</t>
+    <t>补充</t>
   </si>
 </sst>
 </file>
@@ -72,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,30 +68,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,8 +112,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,17 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +167,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,15 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,43 +207,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,43 +221,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,139 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,17 +424,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,15 +453,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +468,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,180 +512,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1019,96 +988,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="32.7321428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
-    <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
-    <col min="4" max="4" width="19.0357142857143" customWidth="1"/>
-    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
-    <col min="7" max="7" width="12.9375" customWidth="1"/>
-    <col min="8" max="8" width="25.5982142857143" customWidth="1"/>
-    <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
-    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>13435183368</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44181</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3">
-        <v>18956225230</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3">
-        <v>33147</v>
-      </c>
-      <c r="J3">
-        <v>11111</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/excel/upload/test.xlsx
+++ b/public/static/excel/upload/test.xlsx
@@ -9,44 +9,260 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>消费地点</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>餐次</t>
-  </si>
-  <si>
-    <t>补录类型（补扣/补充）</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>廖淑怡</t>
-  </si>
-  <si>
-    <t>饭堂</t>
-  </si>
-  <si>
-    <t>早餐</t>
-  </si>
-  <si>
-    <t>补充</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+  <si>
+    <t>注意：
+1、带“*”信息为必填项；
+2、若企业开启刷卡消费功能，则必须填写生日，否则无需填写生日与卡号；
+3、若企业开启刷脸消费功能，则可填写人脸ID，否则无需填写。</t>
+  </si>
+  <si>
+    <t>归属饭堂（多个饭堂用|分隔）*</t>
+  </si>
+  <si>
+    <t>归属部门*</t>
+  </si>
+  <si>
+    <t>人员类型*</t>
+  </si>
+  <si>
+    <t>员工编号</t>
+  </si>
+  <si>
+    <t>姓名*</t>
+  </si>
+  <si>
+    <t>手机号码*</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>人员状态（启用/停用）*</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>人脸识别ID</t>
+  </si>
+  <si>
+    <t>1号窗口（外饭堂）|2号窗口（外饭堂）|3号窗口（外饭堂）|4号窗口（外饭堂）|5号窗口（外饭堂）|6号窗口（外饭堂）|7号窗口（外饭堂）|8号1窗口（外饭堂）|8号2窗口（外饭堂）|9号窗口（外饭堂）|10号窗口（外饭堂）|11号窗口（外饭堂）|1号窗口（内饭堂）|2号窗口（内饭堂）|3号窗口（内饭堂）|4号窗口（内饭堂）|5号窗口（内饭堂）|6号窗口（内饭堂）|7号窗口（中饭堂）</t>
+  </si>
+  <si>
+    <t>高一（1）班</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>何海露</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>2005-02-20</t>
+  </si>
+  <si>
+    <t>黄晓莹</t>
+  </si>
+  <si>
+    <t>2004-06-01</t>
+  </si>
+  <si>
+    <t>1号窗口（外饭堂）|2号窗口（外饭堂）|3号窗口（外饭堂）|4号窗口（外饭堂）|5号窗口（外饭堂）|6号窗口（外饭堂）|7号窗口（外饭堂）|8号1窗口（外饭堂）|8号2窗口（外饭堂）|9号窗口（外饭堂）|10号窗口（外饭堂）|11号窗口（外饭堂）|1号窗口（内饭堂）|2号窗口（内饭堂）|3号窗口（内饭堂）|4号窗口（内饭堂）|5号窗口（内饭堂）|6号窗口（内饭堂）|7号窗口（中饭堂）|</t>
+  </si>
+  <si>
+    <t>梁嘉宜</t>
+  </si>
+  <si>
+    <t>2005-05-28</t>
+  </si>
+  <si>
+    <t>梁圳萍</t>
+  </si>
+  <si>
+    <t>2005-06-23</t>
+  </si>
+  <si>
+    <t>麦熙瑶</t>
+  </si>
+  <si>
+    <t>2005-06-03</t>
+  </si>
+  <si>
+    <t>司徒咏茵</t>
+  </si>
+  <si>
+    <t>2005-03-20</t>
+  </si>
+  <si>
+    <t>杨恭瑜</t>
+  </si>
+  <si>
+    <t>2005-04-06</t>
+  </si>
+  <si>
+    <t>周丽仪</t>
+  </si>
+  <si>
+    <t>2005-01-27</t>
+  </si>
+  <si>
+    <t>崔子文</t>
+  </si>
+  <si>
+    <t>2005-02-15</t>
+  </si>
+  <si>
+    <t>邓健豪</t>
+  </si>
+  <si>
+    <t>2004-10-18</t>
+  </si>
+  <si>
+    <t>冯业俊</t>
+  </si>
+  <si>
+    <t>2005-02-05</t>
+  </si>
+  <si>
+    <t>冯忠长</t>
+  </si>
+  <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
+    <t>黄鸿伟</t>
+  </si>
+  <si>
+    <t>2004-11-22</t>
+  </si>
+  <si>
+    <t>黄焕亿</t>
+  </si>
+  <si>
+    <t>2003-09-09</t>
+  </si>
+  <si>
+    <t>黄浚豪</t>
+  </si>
+  <si>
+    <t>2004-05-07</t>
+  </si>
+  <si>
+    <t>李华峰</t>
+  </si>
+  <si>
+    <t>2005-03-16</t>
+  </si>
+  <si>
+    <t>李子鹏</t>
+  </si>
+  <si>
+    <t>2004-08-06</t>
+  </si>
+  <si>
+    <t>梁耿晖</t>
+  </si>
+  <si>
+    <t>2004-08-25</t>
+  </si>
+  <si>
+    <t>梁国辉</t>
+  </si>
+  <si>
+    <t>2004-02-23</t>
+  </si>
+  <si>
+    <t>梁健富</t>
+  </si>
+  <si>
+    <t>2004-10-22</t>
+  </si>
+  <si>
+    <t>梁友成</t>
+  </si>
+  <si>
+    <t>2004-04-14</t>
+  </si>
+  <si>
+    <t>刘家豪</t>
+  </si>
+  <si>
+    <t>2004-02-18</t>
+  </si>
+  <si>
+    <t>龙昌如</t>
+  </si>
+  <si>
+    <t>2004-07-03</t>
+  </si>
+  <si>
+    <t>罗柏林</t>
+  </si>
+  <si>
+    <t>2005-01-28</t>
+  </si>
+  <si>
+    <t>潘金发</t>
+  </si>
+  <si>
+    <t>2004-04-24</t>
+  </si>
+  <si>
+    <t>秦阳</t>
+  </si>
+  <si>
+    <t>2004-11-08</t>
+  </si>
+  <si>
+    <t>区健伟</t>
+  </si>
+  <si>
+    <t>2004-05-06</t>
+  </si>
+  <si>
+    <t>杨荣伟</t>
+  </si>
+  <si>
+    <t>2005-03-02</t>
+  </si>
+  <si>
+    <t>余石磊</t>
+  </si>
+  <si>
+    <t>2004-07-17</t>
+  </si>
+  <si>
+    <t>张帮涛</t>
+  </si>
+  <si>
+    <t>2003-02-24</t>
+  </si>
+  <si>
+    <t>张健恒</t>
+  </si>
+  <si>
+    <t>2004-01-17</t>
+  </si>
+  <si>
+    <t>郑伟烽</t>
+  </si>
+  <si>
+    <t>2003-05-30</t>
+  </si>
+  <si>
+    <t>梁景智</t>
+  </si>
+  <si>
+    <t>2004-02-21</t>
   </si>
 </sst>
 </file>
@@ -54,12 +270,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,8 +284,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,27 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -113,8 +329,98 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,74 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,14 +441,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -221,187 +451,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,41 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,165 +712,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
@@ -719,7 +958,8 @@
     <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="常规 3" xfId="48"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -988,66 +1228,825 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="2" max="2" width="18.3035714285714" customWidth="1"/>
-    <col min="4" max="4" width="21.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="37.0446428571429" customWidth="1"/>
+    <col min="1" max="1" width="120.892857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.5089285714286" customWidth="1"/>
+    <col min="4" max="4" width="19.0357142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.7678571428571" customWidth="1"/>
+    <col min="7" max="7" width="12.9375" customWidth="1"/>
+    <col min="8" max="8" width="25.5982142857143" customWidth="1"/>
+    <col min="9" max="9" width="15.4732142857143" customWidth="1"/>
+    <col min="10" max="10" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="82" customHeight="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>13435183368</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>44181</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>13542147603</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>13189037438</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>18675938972</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>13431795288</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>13632347682</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>13536204553</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>18022944183</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>15917897664</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>13380990565</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>13556991853</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>13652735951</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>15322640028</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>13824959231</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>13066294626</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>13680497323</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>13555696084</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>13534705641</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>13426750928</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>13059219331</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>13726788933</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>13631810630</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24">
+        <v>15819733642</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>15994891709</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26">
+        <v>13631808108</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27">
+        <v>13435191076</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>15913602004</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>13630441403</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>13686969878</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31">
+        <v>13326837531</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>18276981814</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33">
+        <v>13302556248</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <v>18948082494</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>13078492698</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
